--- a/target/classes/Testdata.xlsx
+++ b/target/classes/Testdata.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0A2E287-972F-4B5E-9057-D928C873C60A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5805" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -13,6 +14,7 @@
     <sheet name="Oppdata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="C1:N17"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -264,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -329,6 +331,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -376,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,9 +414,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,6 +466,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -619,10 +658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -657,8 +696,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -670,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -886,9 +925,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -900,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1009,7 +1048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1021,10 +1060,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
